--- a/Document/Data/Ability/Ability.xlsx
+++ b/Document/Data/Ability/Ability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Ability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316F8198-1CC0-4D30-B6D0-A98B60C31FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAB409F-0252-495B-9A64-EFB62E7E6FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21705" yWindow="4110" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ability" sheetId="12" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="N14:O14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -535,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -563,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -605,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -619,7 +619,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -633,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -647,7 +647,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">

--- a/Document/Data/Ability/Ability.xlsx
+++ b/Document/Data/Ability/Ability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\Data\Ability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAB409F-0252-495B-9A64-EFB62E7E6FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13680DD8-F134-418E-BD4B-47F932370A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21705" yWindow="4110" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9990" yWindow="2295" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ability" sheetId="12" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A4" sqref="A4:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -526,7 +526,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5">
-        <v>2001</v>
+        <v>20001</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5">
-        <v>2002</v>
+        <v>20002</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5">
-        <v>2003</v>
+        <v>20003</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5">
-        <v>3001</v>
+        <v>30001</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5">
-        <v>4001</v>
+        <v>40001</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5">
-        <v>4002</v>
+        <v>40002</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5">
-        <v>6000</v>
+        <v>60000</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
